--- a/data/SJR_Sabina_All_Data.xlsx
+++ b/data/SJR_Sabina_All_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ava\Documents\UNF\Thesis Defense\Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sjr_hypanus-sabinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CC8CA1-E787-454D-A323-5436F5959957}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC3D9A-D77C-42C0-BF6F-A917671ECC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7DD0912C-D375-41A1-B72C-A127625F01B2}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7DD0912C-D375-41A1-B72C-A127625F01B2}"/>
   </bookViews>
   <sheets>
     <sheet name="SJRSabinaAllData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -81,30 +81,15 @@
     <t>LPO</t>
   </si>
   <si>
-    <t>Mature</t>
-  </si>
-  <si>
-    <t>Immature</t>
-  </si>
-  <si>
     <t>SJR14-01</t>
   </si>
   <si>
-    <t>Maturity</t>
-  </si>
-  <si>
     <t>SJR14-02</t>
   </si>
   <si>
     <t>SJR14-03</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>SJR14-04</t>
   </si>
   <si>
@@ -114,34 +99,10 @@
     <t>SJR14-06</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>LSJR</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>LJ</t>
-  </si>
-  <si>
     <t>SJR14-07</t>
   </si>
   <si>
     <t>SJR14-08</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>SJR15-01</t>
@@ -843,9 +804,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -883,7 +844,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -989,7 +950,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,7 +1092,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,30 +1100,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A4B7F8-F93A-4D42-B311-01A8C8E4F677}">
-  <dimension ref="A1:Y194"/>
+  <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M152" sqref="M152"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" customWidth="1"/>
+    <col min="6" max="6" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.41796875" customWidth="1"/>
+    <col min="8" max="8" width="7.68359375" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.41796875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,16 +1172,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>41950</v>
@@ -1260,19 +1215,10 @@
       <c r="P2" s="8">
         <v>36.085638499431596</v>
       </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>41950</v>
@@ -1320,9 +1266,9 @@
         <v>38.660049627791572</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>41975</v>
@@ -1369,16 +1315,10 @@
       <c r="P4" s="5">
         <v>6.6192170818505334</v>
       </c>
-      <c r="S4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>41975</v>
@@ -1425,19 +1365,10 @@
       <c r="P5" s="5">
         <v>13.25174825174825</v>
       </c>
-      <c r="R5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>41975</v>
@@ -1485,9 +1416,9 @@
         <v>10.986872409028097</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>41977</v>
@@ -1534,31 +1465,10 @@
       <c r="P7" s="5">
         <v>6.9509283819628651</v>
       </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>41977</v>
@@ -1605,34 +1515,10 @@
       <c r="P8" s="5">
         <v>12.617449664429532</v>
       </c>
-      <c r="R8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8">
-        <v>6</v>
-      </c>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>41977</v>
@@ -1679,34 +1565,10 @@
       <c r="P9" s="5">
         <v>6.3620324629498946</v>
       </c>
-      <c r="R9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-      <c r="T9">
-        <v>21</v>
-      </c>
-      <c r="U9">
-        <v>13</v>
-      </c>
-      <c r="V9">
-        <v>59</v>
-      </c>
-      <c r="W9">
-        <v>13</v>
-      </c>
-      <c r="X9">
-        <v>19</v>
-      </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>42026</v>
@@ -1754,9 +1616,9 @@
         <v>2.1979166666666701</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>42031</v>
@@ -1804,9 +1666,9 @@
         <v>9.6300366300366278</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>42040</v>
@@ -1854,9 +1716,9 @@
         <v>5.8258461538461539</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>42040</v>
@@ -1904,9 +1766,9 @@
         <v>6.4367926338001151</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>42040</v>
@@ -1954,9 +1816,9 @@
         <v>4.8648423160353742</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>42047</v>
@@ -2004,9 +1866,9 @@
         <v>14.404893101168174</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>42052</v>
@@ -2054,9 +1916,9 @@
         <v>2.177519379844961</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>42052</v>
@@ -2104,9 +1966,9 @@
         <v>15.417006802721088</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>42066</v>
@@ -2154,9 +2016,9 @@
         <v>6.5106796116504855</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>42066</v>
@@ -2204,9 +2066,9 @@
         <v>30.579104477611942</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>42066</v>
@@ -2254,9 +2116,9 @@
         <v>1.8882681564245807</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>42087</v>
@@ -2304,9 +2166,9 @@
         <v>5.2073717948717952</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>42087</v>
@@ -2354,9 +2216,9 @@
         <v>3.9951030401958785</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
         <v>42087</v>
@@ -2404,9 +2266,9 @@
         <v>6.0676797744007525</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>42087</v>
@@ -2454,9 +2316,9 @@
         <v>13.521270396270396</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
         <v>42108</v>
@@ -2504,9 +2366,9 @@
         <v>13.611523611523612</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
         <v>42108</v>
@@ -2554,9 +2416,9 @@
         <v>8.538706516413523</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>42142</v>
@@ -2597,9 +2459,9 @@
         <v>4.523305084745763</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
         <v>42142</v>
@@ -2647,9 +2509,9 @@
         <v>6.8650038080731157</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
         <v>42144</v>
@@ -2697,9 +2559,9 @@
         <v>49.872273249138921</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>42144</v>
@@ -2747,9 +2609,9 @@
         <v>34.055246499136778</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
         <v>42144</v>
@@ -2797,9 +2659,9 @@
         <v>29.286756756756755</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2">
         <v>42150</v>
@@ -2847,9 +2709,9 @@
         <v>8.2639676113360316</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>42150</v>
@@ -2897,9 +2759,9 @@
         <v>7.2558659217877093</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>42150</v>
@@ -2947,9 +2809,9 @@
         <v>4.7326241134751772</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
         <v>42151</v>
@@ -2997,9 +2859,9 @@
         <v>13.945390070921988</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>42151</v>
@@ -3040,9 +2902,9 @@
         <v>9.2140625000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>42151</v>
@@ -3090,9 +2952,9 @@
         <v>4.9926229508196727</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>42151</v>
@@ -3140,9 +3002,9 @@
         <v>27.574485373781155</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2">
         <v>42151</v>
@@ -3190,9 +3052,9 @@
         <v>6.6060000000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2">
         <v>42151</v>
@@ -3240,9 +3102,9 @@
         <v>11.817167381974249</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2">
         <v>42158</v>
@@ -3290,9 +3152,9 @@
         <v>16.795658329400659</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>42158</v>
@@ -3340,9 +3202,9 @@
         <v>20.476213592233005</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>42158</v>
@@ -3390,9 +3252,9 @@
         <v>22.355357142857141</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>42159</v>
@@ -3440,9 +3302,9 @@
         <v>33.448780487804875</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>42165</v>
@@ -3490,9 +3352,9 @@
         <v>30.042075736325383</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>42165</v>
@@ -3540,9 +3402,9 @@
         <v>42.587279151943463</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>42165</v>
@@ -3590,9 +3452,9 @@
         <v>31.18459214501511</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2">
         <v>42165</v>
@@ -3640,9 +3502,9 @@
         <v>9.6450406504065036</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>42167</v>
@@ -3690,9 +3552,9 @@
         <v>18.715</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2">
         <v>42170</v>
@@ -3740,9 +3602,9 @@
         <v>15.824834437086093</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>42171</v>
@@ -3790,9 +3652,9 @@
         <v>29.094298245614034</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>42171</v>
@@ -3840,9 +3702,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2">
         <v>42171</v>
@@ -3890,9 +3752,9 @@
         <v>9.5177165354330722</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2">
         <v>42171</v>
@@ -3940,9 +3802,9 @@
         <v>34.007058823529412</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
         <v>42177</v>
@@ -3983,9 +3845,9 @@
         <v>3.8172327044025156</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2">
         <v>42177</v>
@@ -4033,9 +3895,9 @@
         <v>1.2895238095238097</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>42177</v>
@@ -4076,9 +3938,9 @@
         <v>13.981222879684415</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>42177</v>
@@ -4126,9 +3988,9 @@
         <v>3.8480722891566264</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>42200</v>
@@ -4169,9 +4031,9 @@
         <v>30.645384190160303</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2">
         <v>42200</v>
@@ -4219,9 +4081,9 @@
         <v>20.907532467532466</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2">
         <v>42200</v>
@@ -4269,9 +4131,9 @@
         <v>21.939847328244273</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2">
         <v>42200</v>
@@ -4319,9 +4181,9 @@
         <v>30.82908995952473</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2">
         <v>42200</v>
@@ -4369,9 +4231,9 @@
         <v>15.392558139534884</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
         <v>42200</v>
@@ -4419,9 +4281,9 @@
         <v>3.6684900284900297</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
         <v>42200</v>
@@ -4469,9 +4331,9 @@
         <v>13.883333333333335</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2">
         <v>42219</v>
@@ -4519,9 +4381,9 @@
         <v>4.5156721311475421</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2">
         <v>42219</v>
@@ -4569,9 +4431,9 @@
         <v>2.8624299065420558</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2">
         <v>42219</v>
@@ -4619,9 +4481,9 @@
         <v>1.9883817427385895</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2">
         <v>42219</v>
@@ -4669,9 +4531,9 @@
         <v>3.6698564593301439</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
         <v>42221</v>
@@ -4719,9 +4581,9 @@
         <v>3.6220134228187923</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2">
         <v>42226</v>
@@ -4769,9 +4631,9 @@
         <v>5.2120547945205482</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2">
         <v>42226</v>
@@ -4819,9 +4681,9 @@
         <v>2.3221301775147927</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2">
         <v>42226</v>
@@ -4869,9 +4731,9 @@
         <v>5.2575308641975314</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2">
         <v>42226</v>
@@ -4919,9 +4781,9 @@
         <v>17.358404662174465</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
         <v>42226</v>
@@ -4969,9 +4831,9 @@
         <v>6.8668493150684924</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
         <v>42226</v>
@@ -5019,9 +4881,9 @@
         <v>1.3653731343283582</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2">
         <v>42226</v>
@@ -5062,9 +4924,9 @@
         <v>1.4922605363984676</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2">
         <v>42227</v>
@@ -5112,9 +4974,9 @@
         <v>3.1883018867924529</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2">
         <v>42228</v>
@@ -5162,9 +5024,9 @@
         <v>2.5675409836065577</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2">
         <v>42228</v>
@@ -5212,9 +5074,9 @@
         <v>2.228417508417508</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2">
         <v>42249</v>
@@ -5262,9 +5124,9 @@
         <v>10.853541666666668</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2">
         <v>42250</v>
@@ -5312,9 +5174,9 @@
         <v>18.152720981440705</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2">
         <v>42250</v>
@@ -5362,9 +5224,9 @@
         <v>18.328033472803348</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2">
         <v>42250</v>
@@ -5412,9 +5274,9 @@
         <v>28.102941176470591</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
         <v>42255</v>
@@ -5462,9 +5324,9 @@
         <v>15.831496863875239</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2">
         <v>42255</v>
@@ -5512,9 +5374,9 @@
         <v>32.644705882352937</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2">
         <v>42255</v>
@@ -5562,9 +5424,9 @@
         <v>34.15952788882543</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2">
         <v>42268</v>
@@ -5612,9 +5474,9 @@
         <v>2.220879120879121</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2">
         <v>42292</v>
@@ -5662,9 +5524,9 @@
         <v>14.190495726495726</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2">
         <v>42345</v>
@@ -5712,9 +5574,9 @@
         <v>4.3007073954983923</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2">
         <v>42355</v>
@@ -5762,9 +5624,9 @@
         <v>10.71467576791809</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2">
         <v>42355</v>
@@ -5812,9 +5674,9 @@
         <v>19.27893738140418</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2">
         <v>42474</v>
@@ -5862,9 +5724,9 @@
         <v>4.1932710280373842</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2">
         <v>42474</v>
@@ -5912,9 +5774,9 @@
         <v>4.264615384615384</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2">
         <v>42474</v>
@@ -5962,9 +5824,9 @@
         <v>2.4316666666666666</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2">
         <v>42474</v>
@@ -6012,9 +5874,9 @@
         <v>2.8631111111111109</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2">
         <v>42474</v>
@@ -6062,9 +5924,9 @@
         <v>1.8283591331269347</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2">
         <v>42474</v>
@@ -6112,9 +5974,9 @@
         <v>1.8857142857142859</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2">
         <v>42474</v>
@@ -6162,9 +6024,9 @@
         <v>1.949243697478992</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
         <v>42474</v>
@@ -6212,9 +6074,9 @@
         <v>2.1098924731182791</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>42502</v>
@@ -6262,9 +6124,9 @@
         <v>11.473253012048191</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2">
         <v>42502</v>
@@ -6305,9 +6167,9 @@
         <v>1.9292561983471075</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2">
         <v>42502</v>
@@ -6355,9 +6217,9 @@
         <v>1.9870833333333333</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2">
         <v>42502</v>
@@ -6405,9 +6267,9 @@
         <v>3.3196428571428567</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2">
         <v>42502</v>
@@ -6455,9 +6317,9 @@
         <v>2.9298174442190668</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2">
         <v>42502</v>
@@ -6505,9 +6367,9 @@
         <v>1.8871523178807945</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2">
         <v>42516</v>
@@ -6555,9 +6417,9 @@
         <v>5.2387064676616912</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2">
         <v>42536</v>
@@ -6605,9 +6467,9 @@
         <v>3.7465546218487402</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2">
         <v>42544</v>
@@ -6655,9 +6517,9 @@
         <v>16.449047619047619</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2">
         <v>42549</v>
@@ -6705,9 +6567,9 @@
         <v>2.5205150214592278</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2">
         <v>42550</v>
@@ -6755,9 +6617,9 @@
         <v>15.476135265700483</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2">
         <v>42564</v>
@@ -6805,9 +6667,9 @@
         <v>1.805414364640884</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2">
         <v>42565</v>
@@ -6855,9 +6717,9 @@
         <v>11.855899581589957</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2">
         <v>42585</v>
@@ -6905,9 +6767,9 @@
         <v>10.976410256410256</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2">
         <v>42593</v>
@@ -6955,9 +6817,9 @@
         <v>5.3088475836431215</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2">
         <v>42593</v>
@@ -7005,9 +6867,9 @@
         <v>4.0859574468085107</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2">
         <v>42594</v>
@@ -7055,9 +6917,9 @@
         <v>1.6921081081081082</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2">
         <v>42594</v>
@@ -7105,9 +6967,9 @@
         <v>1.9208633093525176</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2">
         <v>42594</v>
@@ -7155,9 +7017,9 @@
         <v>7.7683333333333326</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2">
         <v>42594</v>
@@ -7205,9 +7067,9 @@
         <v>1.5156462585034014</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2">
         <v>42594</v>
@@ -7255,9 +7117,9 @@
         <v>1.7342114384748699</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2">
         <v>42601</v>
@@ -7305,9 +7167,9 @@
         <v>3.4555048859934856</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2">
         <v>42601</v>
@@ -7355,9 +7217,9 @@
         <v>2.5867276887871853</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2">
         <v>42630</v>
@@ -7405,9 +7267,9 @@
         <v>2.1890476190476189</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2">
         <v>42630</v>
@@ -7455,9 +7317,9 @@
         <v>2.7686956521739128</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2">
         <v>42630</v>
@@ -7505,9 +7367,9 @@
         <v>2.5966412213740453</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2">
         <v>42630</v>
@@ -7555,9 +7417,9 @@
         <v>1.9075</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2">
         <v>42630</v>
@@ -7605,9 +7467,9 @@
         <v>0.91267108167770417</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2">
         <v>42630</v>
@@ -7648,9 +7510,9 @@
         <v>1.8125806451612902</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2">
         <v>42630</v>
@@ -7698,9 +7560,9 @@
         <v>1.4781308411214953</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2">
         <v>42630</v>
@@ -7748,9 +7610,9 @@
         <v>8.494653465346536</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2">
         <v>42630</v>
@@ -7798,9 +7660,9 @@
         <v>2.5011267605633805</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2">
         <v>42630</v>
@@ -7848,9 +7710,9 @@
         <v>1.5934375000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2">
         <v>42630</v>
@@ -7898,9 +7760,9 @@
         <v>2.3740072202166065</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2">
         <v>42630</v>
@@ -7948,9 +7810,9 @@
         <v>5.0067031578947319</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2">
         <v>42631</v>
@@ -7998,9 +7860,9 @@
         <v>3.0152066115702483</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2">
         <v>42631</v>
@@ -8048,9 +7910,9 @@
         <v>4.180618556701031</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2">
         <v>42631</v>
@@ -8098,9 +7960,9 @@
         <v>10.467538461538462</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2">
         <v>42631</v>
@@ -8148,9 +8010,9 @@
         <v>8.2237662337662343</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2">
         <v>42631</v>
@@ -8198,9 +8060,9 @@
         <v>7.7072941176470584</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E141">
         <v>6</v>
@@ -8218,9 +8080,9 @@
         <v>18.339130434782604</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -8238,9 +8100,9 @@
         <v>3.6454700854700861</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -8258,9 +8120,9 @@
         <v>6.2747826086956522</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E144">
         <v>6</v>
@@ -8278,9 +8140,9 @@
         <v>6.1861764705882347</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -8298,9 +8160,9 @@
         <v>7.1683720930232555</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E146">
         <v>6</v>
@@ -8318,9 +8180,9 @@
         <v>6.3254752851711027</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -8335,9 +8197,9 @@
         <v>43.385272164478856</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -8352,9 +8214,9 @@
         <v>24.149838272576179</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E149">
         <v>6</v>
@@ -8369,9 +8231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -8386,9 +8248,9 @@
         <v>62.341374584401414</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -8403,9 +8265,9 @@
         <v>37.239507847115796</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E152">
         <v>6</v>
@@ -8420,9 +8282,9 @@
         <v>71.990131016317193</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E153">
         <v>6</v>
@@ -8437,9 +8299,9 @@
         <v>25.854495821549342</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E154">
         <v>6</v>
@@ -8454,9 +8316,9 @@
         <v>16.415343720817397</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -8471,9 +8333,9 @@
         <v>64.399341070023624</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E156">
         <v>5</v>
@@ -8491,9 +8353,9 @@
         <v>4.921948424068769</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -8511,9 +8373,9 @@
         <v>7.1944186046511636</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E158">
         <v>6</v>
@@ -8531,9 +8393,9 @@
         <v>9.2038095238095217</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E159">
         <v>7</v>
@@ -8551,9 +8413,9 @@
         <v>7.6738461538461546</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E160">
         <v>7</v>
@@ -8571,9 +8433,9 @@
         <v>7.1864984227129343</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -8591,9 +8453,9 @@
         <v>13.492910662824208</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E162">
         <v>6</v>
@@ -8611,9 +8473,9 @@
         <v>5.388461538461538</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E163">
         <v>7</v>
@@ -8631,9 +8493,9 @@
         <v>5.3432592592592592</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -8651,9 +8513,9 @@
         <v>2.0605917159763312</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E165">
         <v>6</v>
@@ -8671,9 +8533,9 @@
         <v>14.947993019197208</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -8691,9 +8553,9 @@
         <v>7.3409798270893383</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -8711,9 +8573,9 @@
         <v>4.7823277909738717</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E168">
         <v>5</v>
@@ -8731,9 +8593,9 @@
         <v>2.1662992125984255</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -8748,9 +8610,9 @@
         <v>24.646940572690688</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E170">
         <v>6</v>
@@ -8765,9 +8627,9 @@
         <v>113.90458479364847</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -8782,9 +8644,9 @@
         <v>5.3599527930762996</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E172">
         <v>6</v>
@@ -8799,9 +8661,9 @@
         <v>77.482547348196704</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E173">
         <v>6</v>
@@ -8816,9 +8678,9 @@
         <v>48.153771736861536</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -8836,9 +8698,9 @@
         <v>6.5546774193548387</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E175">
         <v>7</v>
@@ -8856,9 +8718,9 @@
         <v>7.2631372549019622</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E176">
         <v>6</v>
@@ -8873,9 +8735,9 @@
         <v>35.907859078590782</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E177">
         <v>6</v>
@@ -8890,9 +8752,9 @@
         <v>80.345570144122107</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E178">
         <v>7</v>
@@ -8907,9 +8769,9 @@
         <v>76.332935156523661</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E179">
         <v>6</v>
@@ -8924,9 +8786,9 @@
         <v>67.934782608695599</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E180">
         <v>6</v>
@@ -8941,9 +8803,9 @@
         <v>44.57036677436092</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E181">
         <v>6</v>
@@ -8958,9 +8820,9 @@
         <v>54.101915839376169</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E182">
         <v>6</v>
@@ -8975,9 +8837,9 @@
         <v>65.216856805664776</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E183">
         <v>5</v>
@@ -8995,9 +8857,9 @@
         <v>3.5375100401606434</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -9015,9 +8877,9 @@
         <v>3.1148497854077246</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E185">
         <v>7</v>
@@ -9035,9 +8897,9 @@
         <v>30.101989801019894</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E186">
         <v>6</v>
@@ -9055,9 +8917,9 @@
         <v>4.7311675126903552</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -9072,9 +8934,9 @@
         <v>22.225775939289186</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>7</v>
@@ -9092,9 +8954,9 @@
         <v>18.568361651229832</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E189">
         <v>6</v>
@@ -9109,9 +8971,9 @@
         <v>49.705176498512145</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E190">
         <v>7</v>
@@ -9126,9 +8988,9 @@
         <v>43.696817166383838</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E191">
         <v>5</v>
@@ -9146,9 +9008,9 @@
         <v>5.5099099099099096</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -9163,9 +9025,9 @@
         <v>11.520687328328885</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E193">
         <v>5</v>
@@ -9180,9 +9042,9 @@
         <v>5.0090479937057228</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E194">
         <v>7</v>
